--- a/Personal/xueyu/plan/周计划-2018-02-05.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-02-05.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成时间段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,6 +114,67 @@
   </si>
   <si>
     <t>中午吃饭之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和女朋友看电影，没完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acl工作</t>
+  </si>
+  <si>
+    <t>背单词40个</t>
+  </si>
+  <si>
+    <t>背单词40个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完剩余单词</t>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习第七章，第二、三节</t>
+  </si>
+  <si>
+    <t>*学习第七章，第四节（可选）</t>
+  </si>
+  <si>
+    <t>学习微积分视频，定积分</t>
+  </si>
+  <si>
+    <t>阅读英文小说两节</t>
+  </si>
+  <si>
+    <t>把底层ACL的代码流程画好，先搭框架再写代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成时间段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -421,9 +478,6 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,137 +488,143 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -848,39 +908,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+      <selection activeCell="F9" sqref="F9:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="68.25" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="57.875" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
+    <col min="4" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="30.125" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
-      <c r="A2" s="50" t="s">
+    <row r="1" spans="1:8" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1">
+      <c r="A2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
@@ -888,419 +949,539 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="52">
+    <row r="3" spans="1:8">
+      <c r="A3" s="54">
         <v>43136</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="65"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="55"/>
+      <c r="B5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="65"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="65"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="65"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="55"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="55"/>
+      <c r="B9" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="53"/>
-      <c r="B5" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="53"/>
-      <c r="B9" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="H9" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="65"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="65"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="55"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="5"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="66"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="45">
+        <v>43137</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="58"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="56"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="50"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="59"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="56"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="52"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="50"/>
+      <c r="B15" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="59"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="56"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="5"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="52"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="50"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="59"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="56"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="5"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="52"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="50"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="60"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="56"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="52"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="50"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="58"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="57"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="50"/>
+      <c r="B19" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="46"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="46"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="32"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="51"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="50"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="50"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="46"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="48"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="43"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="49"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="49"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="49"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="40"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="44"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="49"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="41"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="44"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="31"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="31"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="14"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="41"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="41"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="41"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="29"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="40"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="62"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="63"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="67"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="63"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="30"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="33"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="30"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="33"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="63"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="67"/>
-      <c r="B37" s="63"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="56"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="63"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="67"/>
-      <c r="B38" s="63"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="60"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="63"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="28"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="43"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="60"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="43"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="60"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="43"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="60"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="43"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A42" s="27"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="A3:A12"/>
-    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
